--- a/biology/Botanique/Classification_de_Thorne/Classification_de_Thorne.xlsx
+++ b/biology/Botanique/Classification_de_Thorne/Classification_de_Thorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La classification de Thorne est une classification des angiospermes, créée par Robert Folger Thorne en 1968, révisée en 1983, 1992, 2000, 2002 puis 2007. Elle a été utilisée seulement par la communauté scientifique. En réalité, il ne s'agit pas d'une seule classification, mais plutôt de deux, trois ou plus classifications différentes. Celle de 1992 est la plus connue : selon le site du professeur Reveal (1, 2, 3), sa composition est :
 classe Magnoliopsida  [= Angiospermes ]
